--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhove\OneDrive\Documents\iDEV\react-card-game\game\game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RHovel05/Repos/react/game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7900A9C1-4C46-4F29-AB64-9FBA63884D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD41E4E-9625-3441-9646-E0966C1A4D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{160CBDD7-4B1C-4298-97AC-BA88D9FC3914}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{160CBDD7-4B1C-4298-97AC-BA88D9FC3914}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>creature</t>
   </si>
@@ -64,13 +64,7 @@
     <t>speed</t>
   </si>
   <si>
-    <t>wolpertinger</t>
-  </si>
-  <si>
     <t>level</t>
-  </si>
-  <si>
-    <t>troll</t>
   </si>
   <si>
     <r>
@@ -104,10 +98,16 @@
     <t>Turn Phase Sequence</t>
   </si>
   <si>
-    <t>zombie</t>
-  </si>
-  <si>
-    <t>goblin</t>
+    <t>Wolpertinger</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Goblin</t>
   </si>
 </sst>
 </file>
@@ -485,28 +485,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B5C106-A15B-4980-9EB9-FA4DAE8E2BEA}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B1" sqref="B1:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -530,9 +530,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -559,53 +559,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -614,35 +611,116 @@
         <v>0</v>
       </c>
       <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>35</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I8">
         <v>5</v>
       </c>
     </row>
@@ -659,16 +737,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -684,67 +762,67 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RHovel05/Repos/react/game/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhove\OneDrive\Documents\iDEV\react-card-game\game\game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD41E4E-9625-3441-9646-E0966C1A4D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F73F5A-0402-4B25-A85F-A819E3AB59DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{160CBDD7-4B1C-4298-97AC-BA88D9FC3914}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{160CBDD7-4B1C-4298-97AC-BA88D9FC3914}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>creature</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Goblin</t>
+  </si>
+  <si>
+    <t>Elf</t>
   </si>
 </sst>
 </file>
@@ -485,23 +488,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B5C106-A15B-4980-9EB9-FA4DAE8E2BEA}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I8"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -559,105 +565,111 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="E4">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -666,61 +678,6 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
         <v>5</v>
       </c>
     </row>
@@ -737,14 +694,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -762,67 +719,67 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhove\OneDrive\Documents\iDEV\react-card-game\game\game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RHovel05/Repos/react/game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F73F5A-0402-4B25-A85F-A819E3AB59DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51021D0-5EF8-5941-8E15-4977DB6973D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{160CBDD7-4B1C-4298-97AC-BA88D9FC3914}"/>
+    <workbookView xWindow="37620" yWindow="760" windowWidth="30740" windowHeight="15840" xr2:uid="{160CBDD7-4B1C-4298-97AC-BA88D9FC3914}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>creature</t>
   </si>
@@ -112,12 +112,30 @@
   <si>
     <t>Elf</t>
   </si>
+  <si>
+    <t>attacks</t>
+  </si>
+  <si>
+    <t>claw, bite, slash, gnaw</t>
+  </si>
+  <si>
+    <t>hammer, bash, stomp, gawp</t>
+  </si>
+  <si>
+    <t>stumble, claw, bite, gnaw</t>
+  </si>
+  <si>
+    <t>shank, claw, punch, batter</t>
+  </si>
+  <si>
+    <t>shoot, glamour, slash</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +148,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,8 +177,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,197 +514,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B5C106-A15B-4980-9EB9-FA4DAE8E2BEA}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>30</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>4</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>45</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>6</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>6</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>70</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>8</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>40</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>35</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -694,14 +743,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -719,67 +768,67 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
